--- a/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_2_participant_202112.xlsx
+++ b/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_2_participant_202112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
   <si>
     <t>type</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Recorder ID</t>
   </si>
   <si>
-    <t>Code à 2 chiffres qui vous est attribué</t>
+    <t>2-digit code assigned to you</t>
   </si>
   <si>
     <t>. &gt; 9 and .&lt; 100</t>
@@ -90,25 +90,16 @@
     <t>Select district</t>
   </si>
   <si>
-    <t>p_district_other</t>
-  </si>
-  <si>
-    <t>Select the specific district</t>
-  </si>
-  <si>
-    <t>${p_district} = 'Other'</t>
-  </si>
-  <si>
     <t>p_cluster_name</t>
   </si>
   <si>
-    <t>Select the community</t>
+    <t>Select town or site</t>
   </si>
   <si>
     <t>p_cluster_id</t>
   </si>
   <si>
-    <t>Select the community ID</t>
+    <t>Select site ID</t>
   </si>
   <si>
     <t>select_one consent_accent</t>
@@ -372,10 +363,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Dec 2021) IAS - 2. Participant Form</t>
-  </si>
-  <si>
-    <t>lr_oncho_ias_2_participant_202112</t>
+    <t>(Dec 2021) IAS - 2. Participant Form V2</t>
+  </si>
+  <si>
+    <t>lr_oncho_ias_2_participant_202112_v2</t>
   </si>
 </sst>
 </file>
@@ -384,8 +375,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -428,14 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -444,7 +427,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,8 +449,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,24 +471,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -504,8 +487,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,6 +510,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -526,8 +525,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -535,14 +541,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,22 +561,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -586,187 +577,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,11 +840,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,21 +866,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,15 +887,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -922,148 +895,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1429,14 +1420,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1557,16 +1548,13 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15" t="s">
         <v>20</v>
@@ -1574,30 +1562,32 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:12">
+    <row r="5" s="3" customFormat="1" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>29</v>
@@ -1620,19 +1610,21 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:13">
       <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="17"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
         <v>20</v>
@@ -1643,20 +1635,20 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="15" t="s">
         <v>34</v>
       </c>
+      <c r="B8" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="17"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
-        <v>36</v>
+      <c r="H8" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
@@ -1668,9 +1660,9 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1681,7 +1673,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="15"/>
       <c r="H9" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15" t="s">
@@ -1691,22 +1683,26 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:13">
+    <row r="10" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="15"/>
+      <c r="F10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
@@ -1716,26 +1712,22 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="28.5" spans="1:13">
+    <row r="11" s="3" customFormat="1" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
@@ -1747,20 +1739,20 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:13">
       <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="17"/>
       <c r="G12" s="15"/>
       <c r="H12" s="17" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
@@ -1770,38 +1762,38 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:13">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>51</v>
-      </c>
+    <row r="13" s="3" customFormat="1" spans="2:13">
+      <c r="B13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="17"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="H13" s="17"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" s="3" customFormat="1" spans="2:13">
-      <c r="B14" s="15"/>
+    <row r="14" s="3" customFormat="1" spans="1:13">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="F14" s="17"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
@@ -1810,32 +1802,32 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="H15" s="17"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>58</v>
@@ -1844,11 +1836,13 @@
         <v>59</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="H16" s="17"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15" t="s">
@@ -1860,61 +1854,59 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="B17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="17"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:13">
-      <c r="A18" s="3" t="s">
-        <v>65</v>
-      </c>
+    <row r="18" s="3" customFormat="1" spans="2:13">
       <c r="B18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="17"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" s="3" customFormat="1" spans="2:13">
-      <c r="B19" s="15"/>
+    <row r="19" s="3" customFormat="1" spans="1:13">
+      <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="17"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="H19" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="J19" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:13">
+    <row r="20" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A20" s="3" t="s">
         <v>66</v>
       </c>
@@ -1928,8 +1920,8 @@
       <c r="E20" s="15"/>
       <c r="F20" s="17"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="17" t="s">
-        <v>40</v>
+      <c r="H20" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
@@ -1939,9 +1931,9 @@
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" s="3" customFormat="1" ht="28.5" spans="1:13">
+    <row r="21" s="3" customFormat="1" ht="28.5" spans="1:14">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -1963,52 +1955,47 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="28.5" spans="1:14">
+      <c r="N21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="42.75" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="3" t="s">
         <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="17"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="42.75" spans="1:13">
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
         <v>78</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="17"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="15" t="s">
-        <v>79</v>
-      </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
@@ -2022,13 +2009,11 @@
       <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="17"/>
       <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -2037,10 +2022,10 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:13">
       <c r="A25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
         <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -2053,32 +2038,14 @@
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:13">
-      <c r="A26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+    <row r="26" spans="10:10">
       <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
     </row>
     <row r="27" spans="10:10">
       <c r="J27" s="15"/>
     </row>
     <row r="28" spans="10:10">
       <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="10:10">
-      <c r="J29" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2108,93 +2075,93 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E1" s="12"/>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="13"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="13"/>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="13"/>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="13"/>
@@ -2208,26 +2175,26 @@
     </row>
     <row r="9" s="4" customFormat="1" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="13"/>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="13"/>
@@ -2241,156 +2208,156 @@
     </row>
     <row r="12" s="4" customFormat="1" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="13"/>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:5">
       <c r="A14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="13"/>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="13"/>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="13"/>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="13"/>
@@ -2571,7 +2538,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2583,24 +2550,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_2_participant_202112.xlsx
+++ b/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_2_participant_202112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Enter the age in years</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 9</t>
+  </si>
+  <si>
+    <t>The age must be between 5 and 9</t>
   </si>
   <si>
     <t>p_how_long</t>
@@ -1427,7 +1433,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1670,8 +1676,12 @@
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="H9" s="17" t="s">
         <v>37</v>
       </c>
@@ -1688,18 +1698,18 @@
         <v>14</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>37</v>
@@ -1714,13 +1724,13 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -1742,17 +1752,17 @@
         <v>14</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="17"/>
       <c r="G12" s="15"/>
       <c r="H12" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
@@ -1777,22 +1787,22 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="15"/>
       <c r="H14" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -1802,17 +1812,17 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="15"/>
@@ -1830,18 +1840,18 @@
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="15"/>
@@ -1854,7 +1864,7 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17" s="15"/>
       <c r="D17" s="15"/>
@@ -1883,13 +1893,13 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -1908,20 +1918,20 @@
     </row>
     <row r="20" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="17"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
@@ -1936,17 +1946,17 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="17"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15" t="s">
@@ -1961,20 +1971,20 @@
     </row>
     <row r="22" s="3" customFormat="1" ht="42.75" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="17"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -1984,13 +1994,13 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -2004,10 +2014,10 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -2022,10 +2032,10 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -2075,93 +2085,93 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="12"/>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="13"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="13"/>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="13"/>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="13"/>
@@ -2175,26 +2185,26 @@
     </row>
     <row r="9" s="4" customFormat="1" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="13"/>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="13"/>
@@ -2208,156 +2218,156 @@
     </row>
     <row r="12" s="4" customFormat="1" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="13"/>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="13"/>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="13"/>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="13"/>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="13"/>
@@ -2550,24 +2560,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_2_participant_202112.xlsx
+++ b/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_2_participant_202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
   <si>
     <t>type</t>
   </si>
@@ -279,9 +279,6 @@
     <t>list_name</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>region_list</t>
   </si>
   <si>
@@ -369,7 +366,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Dec 2021) IAS - 2. Participant Form V2</t>
+    <t>(July 2022) IAS - 2. Participant Form V2</t>
   </si>
   <si>
     <t>lr_oncho_ias_2_participant_202112_v2</t>
@@ -380,10 +377,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -425,6 +422,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -432,18 +437,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,16 +453,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,17 +475,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,9 +484,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,14 +513,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -532,7 +521,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,21 +557,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -583,13 +580,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,91 +736,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,73 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,22 +838,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,36 +894,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,145 +919,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2072,7 +2069,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2091,87 +2088,87 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E1" s="12"/>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:5">
       <c r="A2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:5">
       <c r="A4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="13"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="13"/>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:5">
       <c r="A6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="C6" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="13"/>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="13"/>
@@ -2185,26 +2182,26 @@
     </row>
     <row r="9" s="4" customFormat="1" spans="1:5">
       <c r="A9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="13"/>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="13"/>
@@ -2218,156 +2215,156 @@
     </row>
     <row r="12" s="4" customFormat="1" spans="1:5">
       <c r="A12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13" s="4" customFormat="1" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="13"/>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="13"/>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="13"/>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="13"/>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="13"/>
@@ -2548,7 +2545,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2560,24 +2557,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_2_participant_202112.xlsx
+++ b/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_2_participant_202112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="136">
   <si>
     <t>type</t>
   </si>
@@ -60,78 +60,75 @@
     <t>read_only</t>
   </si>
   <si>
+    <t>select_one recorder_id</t>
+  </si>
+  <si>
+    <t>p_recorder_id</t>
+  </si>
+  <si>
+    <t>Recorder ID</t>
+  </si>
+  <si>
+    <t>2-digit code assigned to you</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>p_district</t>
+  </si>
+  <si>
+    <t>Select district</t>
+  </si>
+  <si>
+    <t>p_cluster_name</t>
+  </si>
+  <si>
+    <t>Select town or site</t>
+  </si>
+  <si>
+    <t>p_cluster_id</t>
+  </si>
+  <si>
+    <t>Select site ID</t>
+  </si>
+  <si>
+    <t>select_one consent_accent</t>
+  </si>
+  <si>
+    <t>p_accent</t>
+  </si>
+  <si>
+    <t>Accent</t>
+  </si>
+  <si>
+    <t>p_consent</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>${p_accent} = 'Given'</t>
+  </si>
+  <si>
+    <t>select_one sex</t>
+  </si>
+  <si>
+    <t>p_sex</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>${p_accent} = 'Given' and ${p_consent} = 'Given'</t>
+  </si>
+  <si>
     <t>integer</t>
   </si>
   <si>
-    <t>p_recorder_id</t>
-  </si>
-  <si>
-    <t>Recorder ID</t>
-  </si>
-  <si>
-    <t>2-digit code assigned to you</t>
-  </si>
-  <si>
-    <t>. &gt; 9 and .&lt; 100</t>
-  </si>
-  <si>
-    <t>Must be between 10 and 99 included</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>p_district</t>
-  </si>
-  <si>
-    <t>Select district</t>
-  </si>
-  <si>
-    <t>p_cluster_name</t>
-  </si>
-  <si>
-    <t>Select town or site</t>
-  </si>
-  <si>
-    <t>p_cluster_id</t>
-  </si>
-  <si>
-    <t>Select site ID</t>
-  </si>
-  <si>
-    <t>select_one consent_accent</t>
-  </si>
-  <si>
-    <t>p_accent</t>
-  </si>
-  <si>
-    <t>Accent</t>
-  </si>
-  <si>
-    <t>p_consent</t>
-  </si>
-  <si>
-    <t>Consent</t>
-  </si>
-  <si>
-    <t>${p_accent} = 'Given'</t>
-  </si>
-  <si>
-    <t>select_one sex</t>
-  </si>
-  <si>
-    <t>p_sex</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>${p_accent} = 'Given' and ${p_consent} = 'Given'</t>
-  </si>
-  <si>
     <t>p_age_yrs</t>
   </si>
   <si>
@@ -282,6 +279,63 @@
     <t>region_list</t>
   </si>
   <si>
+    <t>recorder_id</t>
+  </si>
+  <si>
+    <t>Alexlyn Monluo (61)</t>
+  </si>
+  <si>
+    <t>Jallah Gobeh (62)</t>
+  </si>
+  <si>
+    <t>Vivian Doedeh (63)</t>
+  </si>
+  <si>
+    <t>Emmanuel Pelham (64)</t>
+  </si>
+  <si>
+    <t>Larry Gee (65)</t>
+  </si>
+  <si>
+    <t>Habakkuk Garphen (66)</t>
+  </si>
+  <si>
+    <t>Youngor Kollie (67)</t>
+  </si>
+  <si>
+    <t>Life Kolako (68)</t>
+  </si>
+  <si>
+    <t>Anthony Bettee (69)</t>
+  </si>
+  <si>
+    <t>James Yanquoi (70)</t>
+  </si>
+  <si>
+    <t>Isaac Gbewo (71)</t>
+  </si>
+  <si>
+    <t>Alice T. Korleh (72)</t>
+  </si>
+  <si>
+    <t>Tarlo Bakai (73)</t>
+  </si>
+  <si>
+    <t>Sonnie Ziama Gbewo (83)</t>
+  </si>
+  <si>
+    <t>Karsor Kollie (84)</t>
+  </si>
+  <si>
+    <t>Partrick Ndongmo (85)</t>
+  </si>
+  <si>
+    <t>Anthony Tamba (86)</t>
+  </si>
+  <si>
+    <t>Gar Gargannah (87)</t>
+  </si>
+  <si>
     <t>yes_no</t>
   </si>
   <si>
@@ -366,10 +420,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(July 2022) IAS - 2. Participant Form V2</t>
-  </si>
-  <si>
-    <t>lr_oncho_ias_2_participant_202112_v2</t>
+    <t>(July 2022) IAS - 2. Participant Form V2.1</t>
+  </si>
+  <si>
+    <t>lr_oncho_ias_2_participant_202112_v2_1</t>
   </si>
 </sst>
 </file>
@@ -377,10 +431,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -422,14 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -439,30 +485,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,23 +499,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,14 +521,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,13 +550,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -557,9 +566,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,181 +640,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,28 +891,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,21 +908,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,160 +930,195 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1081,6 +1135,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1430,7 +1488,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1451,608 +1509,604 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:14">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="28.5" spans="1:13">
+    <row r="2" s="3" customFormat="1" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:12">
       <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:13">
       <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:13">
       <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="H9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="H10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:13">
       <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="2:13">
-      <c r="B13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:13">
       <c r="A14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:13">
       <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="17" t="s">
+      <c r="G16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
     </row>
     <row r="18" s="3" customFormat="1" spans="2:13">
-      <c r="B18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:13">
       <c r="A19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="28.5" spans="1:14">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
       <c r="N21" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="42.75" spans="1:13">
       <c r="A22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:13">
       <c r="A23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
         <v>79</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:13">
       <c r="A24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:13">
       <c r="A25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="15"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="10:10">
-      <c r="J27" s="15"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="10:10">
-      <c r="J28" s="15"/>
+      <c r="J28" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2064,15 +2118,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.3703703703704" customWidth="1"/>
     <col min="2" max="2" width="39.6296296296296" customWidth="1"/>
@@ -2082,7 +2136,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2091,444 +2145,696 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="8">
+        <v>61</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="8">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="8">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="8">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="8">
+        <v>65</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:5">
-      <c r="A5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="8">
+        <v>66</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="8">
+        <v>67</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="8">
+        <v>68</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:5">
-      <c r="A7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="8">
+        <v>69</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="1:5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" s="4" customFormat="1" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="8">
+        <v>70</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="8">
+        <v>71</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:5">
-      <c r="A10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="8">
+        <v>72</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" s="4" customFormat="1" spans="1:5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="8">
+        <v>73</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="8">
+        <v>83</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" s="4" customFormat="1" spans="1:5">
-      <c r="A13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="8">
+        <v>84</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="1:5">
-      <c r="A14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="8">
+        <v>85</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="1:5">
-      <c r="A15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="8">
+        <v>86</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="1:5">
-      <c r="A16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="8">
+        <v>87</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="1:5">
-      <c r="A17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="1:5">
-      <c r="A18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="1:5">
-      <c r="A19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="13"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" s="4" customFormat="1" spans="1:5">
+      <c r="A24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="B24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:5">
+      <c r="A25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" s="4" customFormat="1" spans="1:5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" s="4" customFormat="1" spans="1:5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="13"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:5">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="13"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="9"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:5">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="13"/>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" s="4" customFormat="1" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="13"/>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" s="4" customFormat="1" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="13"/>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" s="4" customFormat="1" spans="1:5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="13"/>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" s="4" customFormat="1" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="13"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" s="4" customFormat="1" spans="1:5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="D36" s="7"/>
-      <c r="E36" s="13"/>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" s="4" customFormat="1" spans="1:5">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="9"/>
+      <c r="A37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" s="4" customFormat="1" spans="1:5">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="13"/>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" s="4" customFormat="1" spans="1:5">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="9"/>
+      <c r="A39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="13"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" s="4" customFormat="1" spans="1:5">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="13"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" s="4" customFormat="1" spans="1:5">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="9"/>
+      <c r="A41" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="13"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" s="4" customFormat="1" spans="1:5">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="9"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="13"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" s="4" customFormat="1" spans="1:5">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="9"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="13"/>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" s="4" customFormat="1" spans="1:5">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="9"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="13"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" s="4" customFormat="1" spans="1:5">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="9"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="13"/>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" s="4" customFormat="1" spans="1:5">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="9"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="13"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" s="4" customFormat="1" spans="1:5">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" s="4" customFormat="1" spans="1:5">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" s="4" customFormat="1" spans="1:5">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" s="4" customFormat="1" spans="1:5">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" s="4" customFormat="1" spans="1:5">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" s="4" customFormat="1" spans="1:5">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" s="4" customFormat="1" spans="1:5">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" s="4" customFormat="1" spans="1:5">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" s="4" customFormat="1" spans="1:5">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" s="4" customFormat="1" spans="1:5">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" s="4" customFormat="1" spans="1:5">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" s="4" customFormat="1" spans="1:5">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" s="4" customFormat="1" spans="1:5">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" s="4" customFormat="1" spans="1:5">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" s="4" customFormat="1" spans="1:5">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" s="4" customFormat="1" spans="1:5">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" s="4" customFormat="1" spans="1:5">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" s="4" customFormat="1" spans="1:5">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A10:E46">
@@ -2545,36 +2851,36 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="34.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="33.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="15.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_2_participant_202112.xlsx
+++ b/ONCHO/Impact Assessments/Liberia/lr_oncho_ias_2_participant_202112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="138">
   <si>
     <t>type</t>
   </si>
@@ -168,6 +168,12 @@
     <t>How many times have you taken Mectizan?</t>
   </si>
   <si>
+    <t>. &gt;= 1 and . &lt;= 5</t>
+  </si>
+  <si>
+    <t>The value must be between 1 and 5</t>
+  </si>
+  <si>
     <t>${p_accent} = 'Given' and ${p_consent} = 'Given' and ${p_ever_taken_ivm} = 'Yes'</t>
   </si>
   <si>
@@ -201,7 +207,7 @@
     <t>specify the year</t>
   </si>
   <si>
-    <t>. &gt;= 1970 and . &lt; 2022</t>
+    <t>. &gt;= 1970 and . &lt;= 2022</t>
   </si>
   <si>
     <t>Please enter a valid year</t>
@@ -420,10 +426,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(July 2022) IAS - 2. Participant Form V2.1</t>
-  </si>
-  <si>
-    <t>lr_oncho_ias_2_participant_202112_v2_1</t>
+    <t>(July 2022) IAS - 2. Participant Form V2.2</t>
+  </si>
+  <si>
+    <t>lr_oncho_ias_2_participant_202112_v2_2</t>
   </si>
 </sst>
 </file>
@@ -432,9 +438,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -484,8 +490,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,6 +519,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -505,6 +551,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -521,38 +582,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,59 +624,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -634,85 +640,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,97 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,6 +879,80 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -896,219 +976,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,7 +1124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1142,9 +1148,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1488,7 +1491,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1509,43 +1512,43 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:14">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1556,557 +1559,561 @@
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:13">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="19" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="19" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="19" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="19" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:13">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="19" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17" t="s">
+      <c r="G12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="2:13">
-      <c r="B13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>59</v>
+      <c r="B16" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+        <v>65</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" s="3" customFormat="1" spans="2:13">
-      <c r="B18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17" t="s">
+      <c r="I19" s="16"/>
+      <c r="J19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="28.5" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="28.5" spans="1:14">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="42.75" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
+        <v>86</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="17"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="10:10">
-      <c r="J27" s="17"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="10:10">
-      <c r="J28" s="17"/>
+      <c r="J28" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2136,7 +2143,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2145,696 +2152,696 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="8">
         <v>61</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3" s="8">
         <v>62</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="14"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="8">
         <v>63</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="14"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B5" s="8">
         <v>64</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="14"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" s="8">
         <v>65</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" s="8">
         <v>66</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B8" s="8">
         <v>67</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="8">
         <v>68</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" customFormat="1" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" s="8">
         <v>69</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" customFormat="1" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B11" s="8">
         <v>70</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" customFormat="1" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12" s="8">
         <v>71</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" customFormat="1" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B13" s="8">
         <v>72</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" customFormat="1" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B14" s="8">
         <v>73</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" customFormat="1" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B15" s="8">
         <v>83</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" customFormat="1" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B16" s="8">
         <v>84</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" customFormat="1" spans="1:6">
       <c r="A17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B17" s="8">
         <v>85</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" customFormat="1" spans="1:6">
       <c r="A18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B18" s="8">
         <v>86</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" customFormat="1" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B19" s="8">
         <v>87</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="14"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:5">
       <c r="A26" s="7"/>
       <c r="B26" s="12"/>
       <c r="C26" s="11"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:5">
       <c r="A28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="15"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="11"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="15"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:5">
       <c r="A30" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="15"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:5">
       <c r="A31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="13" t="s">
         <v>120</v>
       </c>
+      <c r="B31" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="C31" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" s="4" customFormat="1" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" s="4" customFormat="1" spans="1:5">
       <c r="A33" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" s="4" customFormat="1" spans="1:5">
       <c r="A34" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" s="4" customFormat="1" spans="1:5">
       <c r="A35" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" s="4" customFormat="1" spans="1:5">
       <c r="A36" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D36" s="7"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" s="4" customFormat="1" spans="1:5">
       <c r="A37" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" s="4" customFormat="1" spans="1:5">
       <c r="A38" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" s="4" customFormat="1" spans="1:5">
       <c r="A39" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>128</v>
+        <v>120</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" s="4" customFormat="1" spans="1:5">
       <c r="A40" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>129</v>
+        <v>120</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" s="4" customFormat="1" spans="1:5">
       <c r="A41" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" s="4" customFormat="1" spans="1:5">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="11"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="15"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" s="4" customFormat="1" spans="1:5">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="11"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="15"/>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" s="4" customFormat="1" spans="1:5">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="11"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="15"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" s="4" customFormat="1" spans="1:5">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="11"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="15"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" s="4" customFormat="1" spans="1:5">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="11"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="15"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" s="4" customFormat="1" spans="1:5">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="11"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="15"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" s="4" customFormat="1" spans="1:5">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="11"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="15"/>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" s="4" customFormat="1" spans="1:5">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="11"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="15"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" s="4" customFormat="1" spans="1:5">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="11"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="15"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:5">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="11"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="15"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" s="4" customFormat="1" spans="1:5">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="11"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="15"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53" s="4" customFormat="1" spans="1:5">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="11"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="15"/>
+      <c r="E53" s="14"/>
     </row>
     <row r="54" s="4" customFormat="1" spans="1:5">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="11"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="15"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" s="4" customFormat="1" spans="1:5">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="11"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="15"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" s="4" customFormat="1" spans="1:5">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="11"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="15"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" s="4" customFormat="1" spans="1:5">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="11"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="15"/>
+      <c r="E57" s="14"/>
     </row>
     <row r="58" s="4" customFormat="1" spans="1:5">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="11"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="15"/>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" s="4" customFormat="1" spans="1:5">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="11"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="15"/>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" s="4" customFormat="1" spans="1:5">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="11"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="15"/>
+      <c r="E60" s="14"/>
     </row>
     <row r="61" s="4" customFormat="1" spans="1:5">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="11"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="15"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" s="4" customFormat="1" spans="1:5">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="11"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="15"/>
+      <c r="E62" s="14"/>
     </row>
     <row r="63" s="4" customFormat="1" spans="1:5">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="11"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="15"/>
+      <c r="E63" s="14"/>
     </row>
     <row r="64" s="4" customFormat="1" spans="1:5">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="11"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="15"/>
+      <c r="E64" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A10:E46">
@@ -2851,7 +2858,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2863,24 +2870,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
